--- a/biology/Zoologie/Hamadryas_glauconome/Hamadryas_glauconome.xlsx
+++ b/biology/Zoologie/Hamadryas_glauconome/Hamadryas_glauconome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas glauconome est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas glauconome a été décrit par Henry Walter Bates en 1864 sous le nom initial d' Ageronia glauconome[1].
-Sous-espèces
-Hamadryas glauconome glauconome présent  au Guatemala, au Costa Rica et au Mexique.
-Hamadryas glauconome grisea Jenkins, 1983 présent au Mexique[1].
-Nom vernaculaire
-Hamadryas glauconome se nomme Glaucous Cracker en anglais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas glauconome a été décrit par Henry Walter Bates en 1864 sous le nom initial d' Ageronia glauconome.
 </t>
         </is>
       </c>
@@ -544,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryasglauconome est un papillon au dessus marbré de marron, de gris et de crème[2]. Il présente une ligne submarginale d'ocelles pupillés.
-Le revers est crème avec une bande de dessins dans l'aire poste discale et une ligne submarginale d'ocelles.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hamadryas glauconome glauconome présent  au Guatemala, au Costa Rica et au Mexique.
+Hamadryas glauconome grisea Jenkins, 1983 présent au Mexique.</t>
         </is>
       </c>
     </row>
@@ -576,14 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryas glauconome vole toute l'année en zone tropicale en plusieurs générations[2].
-Plantes hôtes
-La plante hôte de sa chenille est Dalechampia scandens (Euphorbiaceae) [1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas glauconome se nomme Glaucous Cracker en anglais,.
 </t>
         </is>
       </c>
@@ -609,18 +627,194 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryasglauconome est un papillon au dessus marbré de marron, de gris et de crème. Il présente une ligne submarginale d'ocelles pupillés.
+Le revers est crème avec une bande de dessins dans l'aire poste discale et une ligne submarginale d'ocelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas glauconome vole toute l'année en zone tropicale en plusieurs générations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Dalechampia scandens (Euphorbiaceae) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas glauconome est présent  au Guatemala, au Costa Rica et au Mexique[1]. Des individus isolés ont été inventoriés dans le sud du Texas et le sud de l'Arizona[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas glauconome est présent  au Guatemala, au Costa Rica et au Mexique. Des individus isolés ont été inventoriés dans le sud du Texas et le sud de l'Arizona.
 Sur les autres projets Wikimedia :
 Hamadryas glauconome, sur Wikimedia CommonsHamadryas glauconome, sur Wikispecies
-Biotope
-Hamadryas glauconome réside en zone tropicale semi-désertique boisée[2].
-Protection
-Pas de statut de protection particulier[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas glauconome réside en zone tropicale semi-désertique boisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_glauconome</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
